--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3a-Nrp2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3a-Nrp2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H2">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I2">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J2">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N2">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O2">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P2">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q2">
-        <v>12.43152503580448</v>
+        <v>27.47432465648033</v>
       </c>
       <c r="R2">
-        <v>12.43152503580448</v>
+        <v>247.268921908323</v>
       </c>
       <c r="S2">
-        <v>0.0203571404140699</v>
+        <v>0.02511813403045235</v>
       </c>
       <c r="T2">
-        <v>0.0203571404140699</v>
+        <v>0.02511813403045234</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H3">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I3">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J3">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N3">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O3">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P3">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q3">
-        <v>7.192482228151569</v>
+        <v>11.20597164057078</v>
       </c>
       <c r="R3">
-        <v>7.192482228151569</v>
+        <v>100.853744765137</v>
       </c>
       <c r="S3">
-        <v>0.0117779894439724</v>
+        <v>0.01024495055396799</v>
       </c>
       <c r="T3">
-        <v>0.0117779894439724</v>
+        <v>0.01024495055396799</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H4">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I4">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J4">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N4">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O4">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P4">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q4">
-        <v>7.09260196101549</v>
+        <v>11.60887231358322</v>
       </c>
       <c r="R4">
-        <v>7.09260196101549</v>
+        <v>104.479850822249</v>
       </c>
       <c r="S4">
-        <v>0.01161443134335097</v>
+        <v>0.01061329857460984</v>
       </c>
       <c r="T4">
-        <v>0.01161443134335097</v>
+        <v>0.01061329857460984</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H5">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I5">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J5">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N5">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O5">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P5">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q5">
-        <v>5.290654238587921</v>
+        <v>8.542885644080668</v>
       </c>
       <c r="R5">
-        <v>5.290654238587921</v>
+        <v>76.885970796726</v>
       </c>
       <c r="S5">
-        <v>0.008663666839509256</v>
+        <v>0.00781025008977727</v>
       </c>
       <c r="T5">
-        <v>0.008663666839509256</v>
+        <v>0.00781025008977727</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H6">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I6">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J6">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N6">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O6">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P6">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q6">
-        <v>4.14296617183106</v>
+        <v>6.572046248977999</v>
       </c>
       <c r="R6">
-        <v>4.14296617183106</v>
+        <v>59.14841624080199</v>
       </c>
       <c r="S6">
-        <v>0.006784279792527379</v>
+        <v>0.006008429346314226</v>
       </c>
       <c r="T6">
-        <v>0.006784279792527379</v>
+        <v>0.006008429346314226</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H7">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I7">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J7">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N7">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O7">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P7">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q7">
-        <v>1.584276631401701</v>
+        <v>2.485343760082555</v>
       </c>
       <c r="R7">
-        <v>1.584276631401701</v>
+        <v>22.368093840743</v>
       </c>
       <c r="S7">
-        <v>0.002594319019370983</v>
+        <v>0.002272201353738367</v>
       </c>
       <c r="T7">
-        <v>0.002594319019370983</v>
+        <v>0.002272201353738367</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H8">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I8">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J8">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N8">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O8">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P8">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q8">
-        <v>38.60268235284919</v>
+        <v>73.91010995408134</v>
       </c>
       <c r="R8">
-        <v>38.60268235284919</v>
+        <v>665.190989586732</v>
       </c>
       <c r="S8">
-        <v>0.06321350138083322</v>
+        <v>0.06757159898356951</v>
       </c>
       <c r="T8">
-        <v>0.06321350138083322</v>
+        <v>0.0675715989835695</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H9">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I9">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J9">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N9">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O9">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P9">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q9">
-        <v>22.33427564053331</v>
+        <v>30.14576723732311</v>
       </c>
       <c r="R9">
-        <v>22.33427564053331</v>
+        <v>271.311905135908</v>
       </c>
       <c r="S9">
-        <v>0.03657330729346474</v>
+        <v>0.02756047442058962</v>
       </c>
       <c r="T9">
-        <v>0.03657330729346474</v>
+        <v>0.02756047442058962</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H10">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I10">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J10">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N10">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O10">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P10">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q10">
-        <v>22.02412493782652</v>
+        <v>31.22963129641289</v>
       </c>
       <c r="R10">
-        <v>22.02412493782652</v>
+        <v>281.066681667716</v>
       </c>
       <c r="S10">
-        <v>0.0360654225901528</v>
+        <v>0.02855138659213178</v>
       </c>
       <c r="T10">
-        <v>0.0360654225901528</v>
+        <v>0.02855138659213178</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H11">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I11">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J11">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N11">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O11">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P11">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q11">
-        <v>16.42867181803879</v>
+        <v>22.98166106624267</v>
       </c>
       <c r="R11">
-        <v>16.42867181803879</v>
+        <v>206.834949596184</v>
       </c>
       <c r="S11">
-        <v>0.02690263487812266</v>
+        <v>0.02101076005040783</v>
       </c>
       <c r="T11">
-        <v>0.02690263487812266</v>
+        <v>0.02101076005040783</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H12">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I12">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J12">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N12">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O12">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P12">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q12">
-        <v>12.86484213877018</v>
+        <v>17.679803487752</v>
       </c>
       <c r="R12">
-        <v>12.86484213877018</v>
+        <v>159.118231389768</v>
       </c>
       <c r="S12">
-        <v>0.02106671523159911</v>
+        <v>0.01616358833892822</v>
       </c>
       <c r="T12">
-        <v>0.02106671523159911</v>
+        <v>0.01616358833892822</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H13">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I13">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J13">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N13">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O13">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P13">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q13">
-        <v>4.919535405744702</v>
+        <v>6.685952534890222</v>
       </c>
       <c r="R13">
-        <v>4.919535405744702</v>
+        <v>60.173572814012</v>
       </c>
       <c r="S13">
-        <v>0.008055944281839464</v>
+        <v>0.006112567060060701</v>
       </c>
       <c r="T13">
-        <v>0.008055944281839464</v>
+        <v>0.006112567060060701</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H14">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I14">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J14">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N14">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O14">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P14">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q14">
-        <v>150.1497625467001</v>
+        <v>341.2695976199817</v>
       </c>
       <c r="R14">
-        <v>150.1497625467001</v>
+        <v>3071.426378579835</v>
       </c>
       <c r="S14">
-        <v>0.2458764946777606</v>
+        <v>0.3120024095484131</v>
       </c>
       <c r="T14">
-        <v>0.2458764946777606</v>
+        <v>0.312002409548413</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H15">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I15">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J15">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N15">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O15">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P15">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q15">
-        <v>86.87184360469995</v>
+        <v>139.1938648368739</v>
       </c>
       <c r="R15">
-        <v>86.87184360469995</v>
+        <v>1252.744783531865</v>
       </c>
       <c r="S15">
-        <v>0.1422562648747105</v>
+        <v>0.1272566367655774</v>
       </c>
       <c r="T15">
-        <v>0.1422562648747105</v>
+        <v>0.1272566367655774</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H16">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I16">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J16">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N16">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O16">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P16">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q16">
-        <v>85.66547525082623</v>
+        <v>144.1984555694561</v>
       </c>
       <c r="R16">
-        <v>85.66547525082623</v>
+        <v>1297.786100125105</v>
       </c>
       <c r="S16">
-        <v>0.1402807864116767</v>
+        <v>0.1318320351551757</v>
       </c>
       <c r="T16">
-        <v>0.1402807864116767</v>
+        <v>0.1318320351551757</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>26</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H17">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I17">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J17">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N17">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O17">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P17">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q17">
-        <v>63.90128929095315</v>
+        <v>106.1146063723633</v>
       </c>
       <c r="R17">
-        <v>63.90128929095315</v>
+        <v>955.03145735127</v>
       </c>
       <c r="S17">
-        <v>0.1046410247326388</v>
+        <v>0.09701424652929658</v>
       </c>
       <c r="T17">
-        <v>0.1046410247326388</v>
+        <v>0.09701424652929658</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H18">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I18">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J18">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N18">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O18">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P18">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q18">
-        <v>50.03934635113649</v>
+        <v>81.63402037980998</v>
       </c>
       <c r="R18">
-        <v>50.03934635113649</v>
+        <v>734.7061834182899</v>
       </c>
       <c r="S18">
-        <v>0.08194151537840196</v>
+        <v>0.07463310894745134</v>
       </c>
       <c r="T18">
-        <v>0.08194151537840196</v>
+        <v>0.07463310894745134</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H19">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I19">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J19">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N19">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O19">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P19">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q19">
-        <v>19.1351229497691</v>
+        <v>30.87145091119277</v>
       </c>
       <c r="R19">
-        <v>19.1351229497691</v>
+        <v>277.843058200735</v>
       </c>
       <c r="S19">
-        <v>0.0313345614159987</v>
+        <v>0.02822392365953824</v>
       </c>
       <c r="T19">
-        <v>0.0313345614159987</v>
+        <v>0.02822392365953824</v>
       </c>
     </row>
   </sheetData>
